--- a/dataproc/pj6-data/5.xlsx
+++ b/dataproc/pj6-data/5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="2"/>
+    <workbookView windowWidth="30720" windowHeight="13740" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="近三届中国质量奖各地区累计获奖企业数" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
     <t>2017各个城市制造业竞争力指数</t>
   </si>
   <si>
-    <t>届数</t>
+    <t>年份</t>
   </si>
   <si>
     <t>行业</t>
@@ -231,8 +231,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -255,9 +255,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,22 +264,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,15 +283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,8 +299,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,16 +323,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -361,9 +362,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,14 +371,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,9 +392,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,19 +408,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,55 +522,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,103 +582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,6 +677,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -688,6 +699,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,21 +751,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -748,27 +759,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,133 +777,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1812,7 +1812,7 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -2088,8 +2088,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6">
-        <v>14</v>
+        <v>2014</v>
       </c>
       <c r="B2" s="6">
         <v>11</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6">
-        <v>15</v>
+        <v>2015</v>
       </c>
       <c r="B3" s="6">
         <v>25</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6">
-        <v>16</v>
+        <v>2016</v>
       </c>
       <c r="B4" s="6">
         <v>17</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6">
-        <v>17</v>
+        <v>2017</v>
       </c>
       <c r="B5" s="6">
         <v>19</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B6" s="6">
         <v>28</v>
